--- a/durationsMySQLcommandlineclient.xlsx
+++ b/durationsMySQLcommandlineclient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DB2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5146AE03-96A9-4B78-9CAF-D60E33026C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114800E-AC9A-4F44-BEBB-D5438B4385FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Command1!$A$2:$B$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">command2!$A$2:$B$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">command3!$A$2:$B$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">command4!$A$2:$B$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">command5!$A$2:$B$102</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Command1!$B$3:$B$102</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Command1!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">command2!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">command5!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">command5!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">command2!$A$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">command2!$A$3:$A$102</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">command2!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">command2!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">command3!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">command3!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">command4!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">command4!$B$3:$B$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>SQL command</t>
   </si>
@@ -82,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +108,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="LM Roman 12"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,9 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,6 +173,154 @@
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{FF8A37D6-E11D-42B1-BD14-82398B1FB2DF}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{D4AF2215-9DEC-49B6-9E1D-5FEEB65EBEBD}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{37004ACF-CEAD-4A4D-8BD7-2537E70B9D9E}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{62AD83BE-1E51-4AC2-A542-CA80C1B68EED}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5A347BD5-A31E-497B-850F-F4A5C95AFCA6}">
           <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
           </cx:dataLabels>
@@ -213,7 +384,2199 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -772,6 +3135,338 @@
             <a:xfrm>
               <a:off x="2522220" y="598170"/>
               <a:ext cx="6850380" cy="3874770"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>536448</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146304</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3767BA-FE38-49F4-87F7-69066A005EB5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1752600" y="722376"/>
+              <a:ext cx="7318248" cy="3648456"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D232EEE-8C74-4812-AF33-EC7B380C191E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2194560" y="1154430"/>
+              <a:ext cx="9334500" cy="3013710"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2BF6C6-868C-48FA-886B-FE87A580BE67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1943100" y="567690"/>
+              <a:ext cx="9403080" cy="4263390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927DD1E4-D86C-40FD-9BE8-8E6FD22F4600}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2369820" y="1055370"/>
+              <a:ext cx="9288780" cy="3554730"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1068,15 +3763,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="A80" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1092,791 +3787,1085 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.76250000000000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0.76250000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.54074999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0.54074999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.52574999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>0.52574999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.54275000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0.54275000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0.54525000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0.54525000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>0.5675</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0.5675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>0.53825000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>0.53825000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0.59975000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>0.59975000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>0.50874999999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>0.50874999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>0.54074999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0.54074999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>0.54449999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>0.54449999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>0.53174999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>0.53174999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>0.57300000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0.57300000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>0.65974999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1">
+      <c r="C18">
+        <v>0.65974999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1.073</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0.70574999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>0.70574999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0.78249999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>0.78249999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0.50524999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>0.50524999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0.57600000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>0.57600000000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0.52024999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>0.52024999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0.54449999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>0.54449999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>0.499</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>0.56300000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>0.56300000000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1">
+      <c r="C27">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>0.88400000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0.58650000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>0.33750000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0.54874999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>0.58650000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0.67699999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>0.54874999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0.50224999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>0.67699999999999994</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0.45925000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>0.50224999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0.49874999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>0.45925000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>0.49874999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0.48575000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>0.46200000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>0.48575000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0.49574999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>0.47899999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>0.51075000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>0.49574999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0.76274999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>0.51075000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>0.76274999999999993</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <v>0.57899999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0.5605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <v>0.45700000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0.48725000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>0.5605</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>0.48725000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>0.70224999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <v>0.64400000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>0.55449999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <v>0.70224999999999993</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>0.79675000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <v>0.55449999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <v>0.79675000000000007</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0.47550000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0.47300000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>0.47550000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <v>0.47300000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0.61974999999999991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <v>0.64300000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0.61050000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <v>0.61974999999999991</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0.45649999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <v>0.61050000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0.63674999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <v>0.45649999999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0.79825000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <v>0.63674999999999993</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0.48025000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <v>0.79825000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <v>0.48025000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0.47350000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <v>0.44800000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <v>0.47350000000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0.24875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <v>0.44400000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0.21800000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <v>0.24875</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0.1885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <v>0.21800000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0.30349999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <v>0.1885</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0.19025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
         <v>0.30349999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <v>0.19025</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>0.22924999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <v>0.22924999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>0.21149999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0.38274999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <v>0.21149999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0.20824999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <v>0.38274999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0.19625000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
         <v>0.20824999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <v>0.19625000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0.24850000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
         <v>0.26600000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <v>0.24850000000000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
         <v>0.82299999999999995</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>0.20974999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <v>0.20974999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>0.21024999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <v>0.21024999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>0.19750000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <v>0.19750000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>0.19650000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>0.1825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <v>0.19650000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>9.9250000000000005E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <v>0.1825</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <v>9.9250000000000005E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>0.34350000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>0.21975</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <v>0.34350000000000003</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>0.19650000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <v>0.21975</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>0.20775000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <v>0.19650000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <v>0.20775000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0.20024999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>0.18675</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <v>0.20024999999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>0.19625000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <v>0.18675</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>0.23299999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
         <v>0.19625000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0.19275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1884,7 +4873,7 @@
         <v>0.23299999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1892,7 +4881,7 @@
         <v>0.19275</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -1900,8 +4889,12 @@
         <f>AVERAGE(B3:B102)</f>
         <v>0.44089249999999991</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <f>AVERAGE(C3:C102)</f>
+        <v>0.42992091836734686</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -1909,13 +4902,21 @@
         <f>MEDIAN(B3:B102)</f>
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <f>MEDIAN(C3:C102)</f>
+        <v>0.47962499999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
       <c r="B106">
         <f>_xlfn.MODE.SNGL(B3:B102)</f>
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="C106">
+        <f>_xlfn.MODE.SNGL(C3:C102)</f>
         <v>0.54074999999999995</v>
       </c>
     </row>
@@ -2025,15 +5026,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884CC37F-CF46-491B-89A4-0E08230BF32D}">
-  <dimension ref="A1:B102"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2049,567 +5051,1247 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.5424999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.65425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.43E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.1274999999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.21274999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.21274999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.0824999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.20824999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.20824999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.9924999999999999E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.19924999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.19924999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.76E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.7474999999999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.17474999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.17474999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.0075E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.20075000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.20075000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.7200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.17200000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.92E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.192</v>
+      </c>
+      <c r="C12">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.8574999999999999E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.18575</v>
+      </c>
+      <c r="C13">
+        <v>0.18575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.8275E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.18275</v>
+      </c>
+      <c r="C14">
+        <v>0.18275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.74E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.7799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.7899999999999999E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18">
+        <v>0.48375000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.19675000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19">
+        <v>0.19675000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.22325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20">
+        <v>0.22325</v>
+      </c>
+      <c r="C20">
+        <v>0.17650000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21">
+        <v>0.17650000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.19075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22">
+        <v>0.19075</v>
+      </c>
+      <c r="C22">
+        <v>0.17225000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23">
+        <v>0.17225000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.18475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24">
+        <v>0.18475</v>
+      </c>
+      <c r="C24">
+        <v>0.21925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25">
+        <v>0.21925</v>
+      </c>
+      <c r="C25">
+        <v>0.17075000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26">
+        <v>0.17075000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.16875000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.19725000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28">
+        <v>0.19725000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.20875000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29">
+        <v>0.20875000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.16250000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.17300000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31">
+        <v>0.17300000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.47725000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0.47725000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.31875000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="C34">
+        <v>0.20775000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0.20775000000000002</v>
+      </c>
+      <c r="C35">
+        <v>0.20249999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0.20249999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.19550000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="C38">
+        <v>0.25024999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0.25024999999999997</v>
+      </c>
+      <c r="C39">
+        <v>0.21425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0.21425</v>
+      </c>
+      <c r="C40">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.18275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0.18275</v>
+      </c>
+      <c r="C42">
+        <v>0.16850000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.16750000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.16699999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="C45">
+        <v>0.19525000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0.19525000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.30075000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0.30075000000000002</v>
+      </c>
+      <c r="C47">
+        <v>0.4385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.4385</v>
+      </c>
+      <c r="C48">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C49">
+        <v>0.40825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.40825</v>
+      </c>
+      <c r="C50">
+        <v>0.34675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0.34675</v>
+      </c>
+      <c r="C51">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.3155</v>
+      </c>
+      <c r="C52">
+        <v>0.18000000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="C53">
+        <v>0.17175000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0.17175000000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.19249999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0.19249999999999998</v>
+      </c>
+      <c r="C55">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0.188</v>
+      </c>
+      <c r="C56">
+        <v>0.16899999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="C57">
+        <v>0.16650000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.16725000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0.16725000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.19075</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0.19075</v>
+      </c>
+      <c r="C60">
+        <v>0.17200000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="C61">
+        <v>0.16625000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0.16625000000000001</v>
+      </c>
+      <c r="C62">
+        <v>0.32699999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0.32699999999999996</v>
+      </c>
+      <c r="C63">
+        <v>0.20849999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.19425000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0.19425000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.18675</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0.18675</v>
+      </c>
+      <c r="C67">
+        <v>0.15875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0.15875</v>
+      </c>
+      <c r="C68">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.19650000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.21074999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0.21074999999999999</v>
+      </c>
+      <c r="C71">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C72">
+        <v>0.1835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0.1835</v>
+      </c>
+      <c r="C73">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C74">
+        <v>0.17474999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0.17474999999999999</v>
+      </c>
+      <c r="C75">
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="C76">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0.17</v>
+      </c>
+      <c r="C77">
+        <v>0.36874999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0.6130000000000001</v>
+      </c>
+      <c r="C78">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="C79">
+        <v>0.17425000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C80">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0.17425000000000002</v>
+      </c>
+      <c r="C81">
+        <v>0.29300000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C82">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0.29300000000000004</v>
+      </c>
+      <c r="C83">
+        <v>0.35449999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>0.311</v>
+      </c>
+      <c r="C84">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="C85">
+        <v>0.25474999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="C86">
+        <v>0.35175000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0.25474999999999998</v>
+      </c>
+      <c r="C87">
+        <v>0.30174999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0.35175000000000001</v>
+      </c>
+      <c r="C88">
+        <v>0.31974999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0.30174999999999996</v>
+      </c>
+      <c r="C89">
+        <v>0.32275000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0.31974999999999998</v>
+      </c>
+      <c r="C90">
+        <v>0.34600000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0.32275000000000004</v>
+      </c>
+      <c r="C91">
+        <v>0.36675000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="C92">
+        <v>0.37924999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0.48025000000000001</v>
+      </c>
+      <c r="C93">
+        <v>0.34949999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0.36675000000000002</v>
+      </c>
+      <c r="C94">
+        <v>0.39250000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0.37924999999999998</v>
+      </c>
+      <c r="C95">
+        <v>0.3775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="C96">
+        <v>0.3755</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="C97">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>0.3775</v>
+      </c>
+      <c r="C98">
+        <v>0.47025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>0.3755</v>
+      </c>
+      <c r="C99">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>0.47025</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>100</v>
       </c>
+      <c r="B102">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <f>AVERAGE(B3:B102)</f>
+        <v>0.25546249999999998</v>
+      </c>
+      <c r="C104">
+        <f>AVERAGE(C3:C102)</f>
+        <v>0.24286458333333327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <f>MEDIAN(B3:B102)</f>
+        <v>0.20224999999999999</v>
+      </c>
+      <c r="C105">
+        <f>MEDIAN(C3:C102)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <f>_xlfn.MODE.SNGL(B3:B102)</f>
+        <v>0.17474999999999999</v>
+      </c>
+      <c r="C106">
+        <f>_xlfn.MODE.SNGL(C3:C102)</f>
+        <v>0.17474999999999999</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:B102" xr:uid="{884CC37F-CF46-491B-89A4-0E08230BF32D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0.15875"/>
+        <filter val="0.162"/>
+        <filter val="0.1625"/>
+        <filter val="0.16625"/>
+        <filter val="0.1665"/>
+        <filter val="0.167"/>
+        <filter val="0.16725"/>
+        <filter val="0.1675"/>
+        <filter val="0.1685"/>
+        <filter val="0.16875"/>
+        <filter val="0.169"/>
+        <filter val="0.17"/>
+        <filter val="0.17075"/>
+        <filter val="0.17175"/>
+        <filter val="0.172"/>
+        <filter val="0.17225"/>
+        <filter val="0.1725"/>
+        <filter val="0.173"/>
+        <filter val="0.174"/>
+        <filter val="0.17425"/>
+        <filter val="0.17475"/>
+        <filter val="0.176"/>
+        <filter val="0.1765"/>
+        <filter val="0.178"/>
+        <filter val="0.179"/>
+        <filter val="0.18"/>
+        <filter val="0.18275"/>
+        <filter val="0.1835"/>
+        <filter val="0.18475"/>
+        <filter val="0.18575"/>
+        <filter val="0.18675"/>
+        <filter val="0.188"/>
+        <filter val="0.19075"/>
+        <filter val="0.192"/>
+        <filter val="0.1925"/>
+        <filter val="0.19425"/>
+        <filter val="0.195"/>
+        <filter val="0.19525"/>
+        <filter val="0.1955"/>
+        <filter val="0.1965"/>
+        <filter val="0.19675"/>
+        <filter val="0.19725"/>
+        <filter val="0.19925"/>
+        <filter val="0.20075"/>
+        <filter val="0.202"/>
+        <filter val="0.2025"/>
+        <filter val="0.20775"/>
+        <filter val="0.20825"/>
+        <filter val="0.2085"/>
+        <filter val="0.20875"/>
+        <filter val="0.21075"/>
+        <filter val="0.211"/>
+        <filter val="0.21275"/>
+        <filter val="0.213"/>
+        <filter val="0.21425"/>
+        <filter val="0.21925"/>
+        <filter val="0.22325"/>
+        <filter val="0.228"/>
+        <filter val="0.243"/>
+        <filter val="0.25025"/>
+        <filter val="0.25475"/>
+        <filter val="0.279"/>
+        <filter val="0.293"/>
+        <filter val="0.30075"/>
+        <filter val="0.30175"/>
+        <filter val="0.311"/>
+        <filter val="0.3155"/>
+        <filter val="0.31875"/>
+        <filter val="0.31975"/>
+        <filter val="0.32275"/>
+        <filter val="0.327"/>
+        <filter val="0.346"/>
+        <filter val="0.34675"/>
+        <filter val="0.3495"/>
+        <filter val="0.35175"/>
+        <filter val="0.3545"/>
+        <filter val="0.36675"/>
+        <filter val="0.36875"/>
+        <filter val="0.3755"/>
+        <filter val="0.3775"/>
+        <filter val="0.37925"/>
+        <filter val="0.3875"/>
+        <filter val="0.3925"/>
+        <filter val="0.40825"/>
+        <filter val="0.416"/>
+        <filter val="0.424"/>
+        <filter val="0.4385"/>
+        <filter val="0.47"/>
+        <filter val="0.47025"/>
+        <filter val="0.47725"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9670D7CD-FB88-4ADB-87CA-87826FB41A8D}">
-  <dimension ref="A1:B2"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2625,22 +6307,1222 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.3725</v>
+      </c>
+      <c r="C3">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.20900000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.20900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.20949999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.17924999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.17924999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.18525</v>
+      </c>
+      <c r="C8">
+        <v>0.18525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.183</v>
+      </c>
+      <c r="C9">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.16449999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.16449999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.17325000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.17325000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.16349999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.16349999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.16</v>
+      </c>
+      <c r="C15">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.17574999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.17574999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.14674999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.14674999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.46250000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.3715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.3715</v>
+      </c>
+      <c r="C20">
+        <v>0.26350000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.25650000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.24424999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.24424999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.26624999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.36525000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.36525000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.23974999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.23974999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.20550000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.20550000000000002</v>
+      </c>
+      <c r="C27">
+        <v>0.26025000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.26025000000000004</v>
+      </c>
+      <c r="C28">
+        <v>0.2215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.2215</v>
+      </c>
+      <c r="C29">
+        <v>0.20749999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.20724999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.20724999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.2545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.2545</v>
+      </c>
+      <c r="C32">
+        <v>0.39649999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.39649999999999996</v>
+      </c>
+      <c r="C33">
+        <v>0.28600000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="C34">
+        <v>0.22175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.22175</v>
+      </c>
+      <c r="C35">
+        <v>0.20900000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.20900000000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.20849999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.20325000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.20325000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.36174999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.36174999999999996</v>
+      </c>
+      <c r="C39">
+        <v>0.41675000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.41675000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.25874999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C42">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.35</v>
+      </c>
+      <c r="C43">
+        <v>0.31324999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.25874999999999998</v>
+      </c>
+      <c r="C44">
+        <v>0.18049999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.222</v>
+      </c>
+      <c r="C45">
+        <v>0.45350000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.31324999999999997</v>
+      </c>
+      <c r="C46">
+        <v>0.30925000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.29625000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.18375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.30925000000000002</v>
+      </c>
+      <c r="C49">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.29625000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.15925</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.18375</v>
+      </c>
+      <c r="C51">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C52">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.443</v>
+      </c>
+      <c r="C53">
+        <v>0.1865</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.15925</v>
+      </c>
+      <c r="C54">
+        <v>0.2165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.17674999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.186</v>
+      </c>
+      <c r="C56">
+        <v>0.16124999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.1865</v>
+      </c>
+      <c r="C57">
+        <v>0.13924999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.2165</v>
+      </c>
+      <c r="C58">
+        <v>0.15175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.17674999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.16124999999999998</v>
+      </c>
+      <c r="C60">
+        <v>0.24274999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.13924999999999998</v>
+      </c>
+      <c r="C61">
+        <v>0.22725000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.15175</v>
+      </c>
+      <c r="C62">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.20350000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.24274999999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.22725000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.19124999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.21525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.20350000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.217</v>
+      </c>
+      <c r="C68">
+        <v>0.23675000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.19124999999999998</v>
+      </c>
+      <c r="C69">
+        <v>0.22775000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.21525</v>
+      </c>
+      <c r="C70">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C71">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.23675000000000002</v>
+      </c>
+      <c r="C72">
+        <v>0.29325000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.22775000000000001</v>
+      </c>
+      <c r="C73">
+        <v>0.25274999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.253</v>
+      </c>
+      <c r="C74">
+        <v>0.24475000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.254</v>
+      </c>
+      <c r="C75">
+        <v>0.14849999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.29325000000000001</v>
+      </c>
+      <c r="C76">
+        <v>0.14624999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.25274999999999997</v>
+      </c>
+      <c r="C77">
+        <v>0.17525000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.81475000000000009</v>
+      </c>
+      <c r="C78">
+        <v>0.14175000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.80975000000000008</v>
+      </c>
+      <c r="C79">
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C80">
+        <v>0.13674999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.24475000000000002</v>
+      </c>
+      <c r="C81">
+        <v>0.15925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="C82">
+        <v>0.14974999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.14624999999999999</v>
+      </c>
+      <c r="C83">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.17525000000000002</v>
+      </c>
+      <c r="C84">
+        <v>0.1545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.14175000000000001</v>
+      </c>
+      <c r="C85">
+        <v>0.13950000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="C86">
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.13674999999999998</v>
+      </c>
+      <c r="C87">
+        <v>0.24324999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.15925</v>
+      </c>
+      <c r="C88">
+        <v>0.2175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.14974999999999999</v>
+      </c>
+      <c r="C89">
+        <v>0.29100000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.152</v>
+      </c>
+      <c r="C90">
+        <v>0.35724999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.1545</v>
+      </c>
+      <c r="C91">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.13950000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.24324999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.2175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.29100000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.35724999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.49799999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.70874999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1.0794999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.84275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <f>AVERAGE(B3:B102)</f>
+        <v>0.29002500000000003</v>
+      </c>
+      <c r="C104">
+        <f>AVERAGE(C3:C102)</f>
+        <v>0.2366348314606741</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <f>MEDIAN(B3:B102)</f>
+        <v>0.22162500000000002</v>
+      </c>
+      <c r="C105">
+        <f>MEDIAN(C3:C102)</f>
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <f>_xlfn.MODE.SNGL(B3:B102)</f>
+        <v>0.20900000000000002</v>
+      </c>
+      <c r="C106">
+        <f>_xlfn.MODE.SNGL(C3:C102)</f>
+        <v>0.20900000000000002</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:B102" xr:uid="{9670D7CD-FB88-4ADB-87CA-87826FB41A8D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0.13675"/>
+        <filter val="0.13925"/>
+        <filter val="0.1395"/>
+        <filter val="0.14175"/>
+        <filter val="0.1425"/>
+        <filter val="0.14625"/>
+        <filter val="0.14675"/>
+        <filter val="0.1485"/>
+        <filter val="0.14975"/>
+        <filter val="0.15175"/>
+        <filter val="0.152"/>
+        <filter val="0.1545"/>
+        <filter val="0.15925"/>
+        <filter val="0.16"/>
+        <filter val="0.16125"/>
+        <filter val="0.1635"/>
+        <filter val="0.164"/>
+        <filter val="0.1645"/>
+        <filter val="0.17325"/>
+        <filter val="0.175"/>
+        <filter val="0.17525"/>
+        <filter val="0.17575"/>
+        <filter val="0.17675"/>
+        <filter val="0.17925"/>
+        <filter val="0.1805"/>
+        <filter val="0.183"/>
+        <filter val="0.18375"/>
+        <filter val="0.18525"/>
+        <filter val="0.186"/>
+        <filter val="0.1865"/>
+        <filter val="0.19125"/>
+        <filter val="0.20325"/>
+        <filter val="0.2035"/>
+        <filter val="0.2055"/>
+        <filter val="0.207"/>
+        <filter val="0.20725"/>
+        <filter val="0.2075"/>
+        <filter val="0.208"/>
+        <filter val="0.2085"/>
+        <filter val="0.209"/>
+        <filter val="0.2095"/>
+        <filter val="0.213"/>
+        <filter val="0.21525"/>
+        <filter val="0.2165"/>
+        <filter val="0.217"/>
+        <filter val="0.2175"/>
+        <filter val="0.2215"/>
+        <filter val="0.22175"/>
+        <filter val="0.222"/>
+        <filter val="0.22725"/>
+        <filter val="0.22775"/>
+        <filter val="0.23675"/>
+        <filter val="0.23975"/>
+        <filter val="0.24275"/>
+        <filter val="0.24325"/>
+        <filter val="0.24425"/>
+        <filter val="0.24475"/>
+        <filter val="0.25275"/>
+        <filter val="0.253"/>
+        <filter val="0.254"/>
+        <filter val="0.2545"/>
+        <filter val="0.2565"/>
+        <filter val="0.25875"/>
+        <filter val="0.26025"/>
+        <filter val="0.2635"/>
+        <filter val="0.26625"/>
+        <filter val="0.286"/>
+        <filter val="0.291"/>
+        <filter val="0.29325"/>
+        <filter val="0.29625"/>
+        <filter val="0.30925"/>
+        <filter val="0.31325"/>
+        <filter val="0.35"/>
+        <filter val="0.35725"/>
+        <filter val="0.36175"/>
+        <filter val="0.36525"/>
+        <filter val="0.3715"/>
+        <filter val="0.3725"/>
+        <filter val="0.384"/>
+        <filter val="0.3965"/>
+        <filter val="0.41675"/>
+        <filter val="0.4375"/>
+        <filter val="0.443"/>
+        <filter val="0.4535"/>
+        <filter val="0.4545"/>
+        <filter val="0.4625"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D37187-80A3-499A-A78B-A9E695F86ECC}">
-  <dimension ref="A1:B2"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +7530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2656,22 +7538,1255 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.26424999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.26424999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1295</v>
+      </c>
+      <c r="C4">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1535</v>
+      </c>
+      <c r="C5">
+        <v>0.1535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.20875000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.20875000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.13950000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.12525</v>
+      </c>
+      <c r="C8">
+        <v>0.12525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.10675000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.10675000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.11299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.1145</v>
+      </c>
+      <c r="C11">
+        <v>0.1145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.1145</v>
+      </c>
+      <c r="C12">
+        <v>0.1145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9.8750000000000004E-2</v>
+      </c>
+      <c r="C13">
+        <v>9.8750000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9.8250000000000004E-2</v>
+      </c>
+      <c r="C14">
+        <v>9.8250000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.10325000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.10325000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>9.7250000000000003E-2</v>
+      </c>
+      <c r="C16">
+        <v>9.7250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>9.9250000000000005E-2</v>
+      </c>
+      <c r="C17">
+        <v>9.9250000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.2505</v>
+      </c>
+      <c r="C20">
+        <v>0.2505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.24000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.23900000000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.23900000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.24925000000000003</v>
+      </c>
+      <c r="C24">
+        <v>0.24925000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.23675000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.23675000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.23450000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.23450000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.35575000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.35575000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.40575</v>
+      </c>
+      <c r="C28">
+        <v>0.40575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.41475000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.41475000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.34175</v>
+      </c>
+      <c r="C31">
+        <v>0.34175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.48899999999999993</v>
+      </c>
+      <c r="C32">
+        <v>0.48899999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="C33">
+        <v>0.28925000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.28925000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.29875000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.29875000000000002</v>
+      </c>
+      <c r="C35">
+        <v>0.2515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.2515</v>
+      </c>
+      <c r="C36">
+        <v>0.2545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.2545</v>
+      </c>
+      <c r="C37">
+        <v>0.23550000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.23550000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.25524999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.25524999999999998</v>
+      </c>
+      <c r="C39">
+        <v>0.25175000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.25175000000000003</v>
+      </c>
+      <c r="C40">
+        <v>0.27474999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.27474999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.23474999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.23474999999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.253</v>
+      </c>
+      <c r="C43">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.2495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.2495</v>
+      </c>
+      <c r="C45">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.247</v>
+      </c>
+      <c r="C46">
+        <v>0.25074999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.25074999999999997</v>
+      </c>
+      <c r="C47">
+        <v>0.31950000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.22325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.22325</v>
+      </c>
+      <c r="C49">
+        <v>0.27224999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.27224999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.16975000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.16975000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.18925</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.18925</v>
+      </c>
+      <c r="C53">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C54">
+        <v>0.14574999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.14574999999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.1595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.1595</v>
+      </c>
+      <c r="C56">
+        <v>0.15475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.15475</v>
+      </c>
+      <c r="C57">
+        <v>0.14775000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.14775000000000002</v>
+      </c>
+      <c r="C58">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.156</v>
+      </c>
+      <c r="C59">
+        <v>0.16699999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="C60">
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.23624999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.23624999999999999</v>
+      </c>
+      <c r="C62">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.27425000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.27425000000000005</v>
+      </c>
+      <c r="C64">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C65">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.251</v>
+      </c>
+      <c r="C66">
+        <v>0.24825</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.24825</v>
+      </c>
+      <c r="C67">
+        <v>0.23274999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.23274999999999998</v>
+      </c>
+      <c r="C68">
+        <v>0.22924999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.22924999999999998</v>
+      </c>
+      <c r="C69">
+        <v>0.23924999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.23924999999999999</v>
+      </c>
+      <c r="C70">
+        <v>0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.25575000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.25575000000000003</v>
+      </c>
+      <c r="C72">
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="C73">
+        <v>0.32350000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="C74">
+        <v>0.25774999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.25774999999999998</v>
+      </c>
+      <c r="C75">
+        <v>0.24649999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.24649999999999997</v>
+      </c>
+      <c r="C76">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C77">
+        <v>0.45250000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="C78">
+        <v>0.35675000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.35675000000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.28600000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="C80">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C81">
+        <v>0.25324999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.25324999999999998</v>
+      </c>
+      <c r="C82">
+        <v>0.2525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.2525</v>
+      </c>
+      <c r="C83">
+        <v>0.2545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.2545</v>
+      </c>
+      <c r="C84">
+        <v>0.25274999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.25274999999999997</v>
+      </c>
+      <c r="C85">
+        <v>0.24224999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.24224999999999999</v>
+      </c>
+      <c r="C86">
+        <v>0.24675</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.24675</v>
+      </c>
+      <c r="C87">
+        <v>0.25999999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="C88">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C89">
+        <v>0.28650000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.28650000000000003</v>
+      </c>
+      <c r="C90">
+        <v>0.25874999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.25874999999999998</v>
+      </c>
+      <c r="C91">
+        <v>0.24250000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.24250000000000002</v>
+      </c>
+      <c r="C92">
+        <v>0.46274999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.54474999999999996</v>
+      </c>
+      <c r="C93">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.46274999999999999</v>
+      </c>
+      <c r="C94">
+        <v>0.33124999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.73275000000000001</v>
+      </c>
+      <c r="C95">
+        <v>0.26449999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C96">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C97">
+        <v>0.37524999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.26449999999999996</v>
+      </c>
+      <c r="C98">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C99">
+        <v>0.26275000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.37524999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.26275000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <f>AVERAGE(B3:B102)</f>
+        <v>0.26015750000000004</v>
+      </c>
+      <c r="C104">
+        <f>AVERAGE(C3:C99)</f>
+        <v>0.24947680412371148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <f>MEDIAN(B3:B102)</f>
+        <v>0.25162499999999999</v>
+      </c>
+      <c r="C105">
+        <f>MEDIAN(C3:C102)</f>
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <f>_xlfn.MODE.SNGL(B3:B102)</f>
+        <v>0.1145</v>
+      </c>
+      <c r="C106">
+        <f>_xlfn.MODE.SNGL(C3:C102)</f>
+        <v>0.1145</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:B102" xr:uid="{17D37187-80A3-499A-A78B-A9E695F86ECC}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0.09725"/>
+        <filter val="0.09825"/>
+        <filter val="0.09875"/>
+        <filter val="0.09925"/>
+        <filter val="0.10325"/>
+        <filter val="0.10675"/>
+        <filter val="0.113"/>
+        <filter val="0.1145"/>
+        <filter val="0.12525"/>
+        <filter val="0.1295"/>
+        <filter val="0.1395"/>
+        <filter val="0.14575"/>
+        <filter val="0.14775"/>
+        <filter val="0.148"/>
+        <filter val="0.1535"/>
+        <filter val="0.15475"/>
+        <filter val="0.156"/>
+        <filter val="0.1595"/>
+        <filter val="0.167"/>
+        <filter val="0.16975"/>
+        <filter val="0.18925"/>
+        <filter val="0.20875"/>
+        <filter val="0.2125"/>
+        <filter val="0.22325"/>
+        <filter val="0.22925"/>
+        <filter val="0.23275"/>
+        <filter val="0.2345"/>
+        <filter val="0.23475"/>
+        <filter val="0.2355"/>
+        <filter val="0.236"/>
+        <filter val="0.23625"/>
+        <filter val="0.23675"/>
+        <filter val="0.2375"/>
+        <filter val="0.239"/>
+        <filter val="0.23925"/>
+        <filter val="0.24"/>
+        <filter val="0.24225"/>
+        <filter val="0.2425"/>
+        <filter val="0.243"/>
+        <filter val="0.2465"/>
+        <filter val="0.24675"/>
+        <filter val="0.247"/>
+        <filter val="0.24825"/>
+        <filter val="0.24925"/>
+        <filter val="0.2495"/>
+        <filter val="0.2505"/>
+        <filter val="0.25075"/>
+        <filter val="0.251"/>
+        <filter val="0.2515"/>
+        <filter val="0.25175"/>
+        <filter val="0.2525"/>
+        <filter val="0.25275"/>
+        <filter val="0.253"/>
+        <filter val="0.25325"/>
+        <filter val="0.2545"/>
+        <filter val="0.25525"/>
+        <filter val="0.25575"/>
+        <filter val="0.256"/>
+        <filter val="0.257"/>
+        <filter val="0.25775"/>
+        <filter val="0.2585"/>
+        <filter val="0.25875"/>
+        <filter val="0.26"/>
+        <filter val="0.26275"/>
+        <filter val="0.263"/>
+        <filter val="0.264"/>
+        <filter val="0.26425"/>
+        <filter val="0.2645"/>
+        <filter val="0.268"/>
+        <filter val="0.27225"/>
+        <filter val="0.27425"/>
+        <filter val="0.27475"/>
+        <filter val="0.28"/>
+        <filter val="0.286"/>
+        <filter val="0.2865"/>
+        <filter val="0.28925"/>
+        <filter val="0.29875"/>
+        <filter val="0.299"/>
+        <filter val="0.3195"/>
+        <filter val="0.3235"/>
+        <filter val="0.3285"/>
+        <filter val="0.33125"/>
+        <filter val="0.339"/>
+        <filter val="0.34175"/>
+        <filter val="0.35575"/>
+        <filter val="0.35675"/>
+        <filter val="0.37525"/>
+        <filter val="0.391"/>
+        <filter val="0.40575"/>
+        <filter val="0.41475"/>
+        <filter val="0.444"/>
+        <filter val="0.4525"/>
+        <filter val="0.46275"/>
+        <filter val="0.464"/>
+        <filter val="0.489"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A62160B-37C7-4E5A-8526-83F5D273624B}">
-  <dimension ref="A1:B2"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +8794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2687,7 +8802,1239 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="15" hidden="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.72450000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.37724999999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.37724999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.36575000000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.36575000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.35349999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.35225000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.35225000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.32924999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.32924999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.33474999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.33474999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.37974999999999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.37974999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.35125000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.35125000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.32874999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.32874999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.35875000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.35875000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.59375</v>
+      </c>
+      <c r="C18">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.42349999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.35375000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.35375000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.35825000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.35825000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.34249999999999997</v>
+      </c>
+      <c r="C22">
+        <v>0.34249999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="C24">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.33324999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.33324999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.25125000000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.25125000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.184</v>
+      </c>
+      <c r="C28">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.18275</v>
+      </c>
+      <c r="C29">
+        <v>0.18275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.18124999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.20775000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.20775000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.17374999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.17374999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.64899999999999991</v>
+      </c>
+      <c r="C33">
+        <v>0.64899999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.38</v>
+      </c>
+      <c r="C34">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="C35">
+        <v>0.36000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C36">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.36624999999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.36624999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.33425000000000005</v>
+      </c>
+      <c r="C38">
+        <v>0.33425000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.36275000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.36275000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.3765</v>
+      </c>
+      <c r="C40">
+        <v>0.3765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.32550000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.37324999999999997</v>
+      </c>
+      <c r="C42">
+        <v>0.37324999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="C43">
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.35050000000000003</v>
+      </c>
+      <c r="C44">
+        <v>0.35050000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.33574999999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.33574999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.32249999999999995</v>
+      </c>
+      <c r="C46">
+        <v>0.32249999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.26224999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.26224999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.39599999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.39599999999999996</v>
+      </c>
+      <c r="C49">
+        <v>0.43150000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.43150000000000005</v>
+      </c>
+      <c r="C50">
+        <v>0.42925000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.42925000000000002</v>
+      </c>
+      <c r="C51">
+        <v>0.47949999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.47949999999999998</v>
+      </c>
+      <c r="C52">
+        <v>0.35875000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.35875000000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.44674999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.44674999999999998</v>
+      </c>
+      <c r="C54">
+        <v>0.34275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.34275</v>
+      </c>
+      <c r="C55">
+        <v>0.37375000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.37375000000000003</v>
+      </c>
+      <c r="C56">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C57">
+        <v>0.35249999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C58">
+        <v>0.28650000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.28650000000000003</v>
+      </c>
+      <c r="C59">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="C61">
+        <v>0.27474999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.27474999999999999</v>
+      </c>
+      <c r="C62">
+        <v>0.54649999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.39874999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.39874999999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.35249999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C65">
+        <v>0.36174999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.36174999999999996</v>
+      </c>
+      <c r="C66">
+        <v>0.31950000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="C68">
+        <v>0.53174999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.53174999999999994</v>
+      </c>
+      <c r="C69">
+        <v>0.52649999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="C70">
+        <v>0.61974999999999991</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.61974999999999991</v>
+      </c>
+      <c r="C71">
+        <v>0.49925000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.49925000000000003</v>
+      </c>
+      <c r="C72">
+        <v>0.38975000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.38975000000000004</v>
+      </c>
+      <c r="C73">
+        <v>0.42649999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="C74">
+        <v>0.36125000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.36125000000000002</v>
+      </c>
+      <c r="C75">
+        <v>0.34650000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.34650000000000003</v>
+      </c>
+      <c r="C76">
+        <v>0.33574999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.33574999999999999</v>
+      </c>
+      <c r="C77">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="C78">
+        <v>0.38550000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.36874999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="C80">
+        <v>0.35275000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.35275000000000001</v>
+      </c>
+      <c r="C81">
+        <v>0.32899999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.32899999999999996</v>
+      </c>
+      <c r="C82">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.3725</v>
+      </c>
+      <c r="C83">
+        <v>0.62824999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.62824999999999998</v>
+      </c>
+      <c r="C84">
+        <v>0.41225000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="C85">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.41225000000000001</v>
+      </c>
+      <c r="C86">
+        <v>0.34925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="C87">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.34925</v>
+      </c>
+      <c r="C88">
+        <v>0.25524999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.32</v>
+      </c>
+      <c r="C89">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.25524999999999998</v>
+      </c>
+      <c r="C90">
+        <v>0.33849999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C91">
+        <v>0.67249999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.33849999999999997</v>
+      </c>
+      <c r="C92">
+        <v>0.50250000000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="C93">
+        <v>0.45849999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.50250000000000006</v>
+      </c>
+      <c r="C94">
+        <v>0.38424999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.45849999999999996</v>
+      </c>
+      <c r="C95">
+        <v>0.37825000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.38424999999999998</v>
+      </c>
+      <c r="C96">
+        <v>0.32824999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.37825000000000003</v>
+      </c>
+      <c r="C97">
+        <v>0.37924999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.32824999999999999</v>
+      </c>
+      <c r="C98">
+        <v>0.43124999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.37924999999999998</v>
+      </c>
+      <c r="C99">
+        <v>0.46050000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="C100">
+        <v>0.52275000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.46050000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.52275000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <f>AVERAGE(B3:B102)</f>
+        <v>0.38742750000000004</v>
+      </c>
+      <c r="C104">
+        <f>AVERAGE(C3:C99)</f>
+        <v>0.37439583333333343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <f>MEDIAN(B3:B102)</f>
+        <v>0.35875000000000001</v>
+      </c>
+      <c r="C105">
+        <f>MEDIAN(C3:C102)</f>
+        <v>0.35825000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <f>_xlfn.MODE.SNGL(B3:B102)</f>
+        <v>0.35875000000000001</v>
+      </c>
+      <c r="C106">
+        <f>_xlfn.MODE.SNGL(C3:C102)</f>
+        <v>0.35875000000000001</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:B102" xr:uid="{9A62160B-37C7-4E5A-8526-83F5D273624B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0.17375"/>
+        <filter val="0.18125"/>
+        <filter val="0.18275"/>
+        <filter val="0.184"/>
+        <filter val="0.20775"/>
+        <filter val="0.25125"/>
+        <filter val="0.25525"/>
+        <filter val="0.259"/>
+        <filter val="0.26225"/>
+        <filter val="0.27475"/>
+        <filter val="0.28"/>
+        <filter val="0.2865"/>
+        <filter val="0.301"/>
+        <filter val="0.3195"/>
+        <filter val="0.32"/>
+        <filter val="0.3225"/>
+        <filter val="0.3255"/>
+        <filter val="0.32825"/>
+        <filter val="0.32875"/>
+        <filter val="0.329"/>
+        <filter val="0.32925"/>
+        <filter val="0.331"/>
+        <filter val="0.3325"/>
+        <filter val="0.333"/>
+        <filter val="0.33325"/>
+        <filter val="0.33425"/>
+        <filter val="0.33475"/>
+        <filter val="0.335"/>
+        <filter val="0.33575"/>
+        <filter val="0.3385"/>
+        <filter val="0.339"/>
+        <filter val="0.3425"/>
+        <filter val="0.34275"/>
+        <filter val="0.345"/>
+        <filter val="0.3465"/>
+        <filter val="0.34925"/>
+        <filter val="0.3505"/>
+        <filter val="0.35125"/>
+        <filter val="0.352"/>
+        <filter val="0.35225"/>
+        <filter val="0.3525"/>
+        <filter val="0.35275"/>
+        <filter val="0.3535"/>
+        <filter val="0.35375"/>
+        <filter val="0.354"/>
+        <filter val="0.358"/>
+        <filter val="0.35825"/>
+        <filter val="0.35875"/>
+        <filter val="0.36"/>
+        <filter val="0.36125"/>
+        <filter val="0.36175"/>
+        <filter val="0.36275"/>
+        <filter val="0.363"/>
+        <filter val="0.36575"/>
+        <filter val="0.36625"/>
+        <filter val="0.36875"/>
+        <filter val="0.3725"/>
+        <filter val="0.37325"/>
+        <filter val="0.37375"/>
+        <filter val="0.3765"/>
+        <filter val="0.37725"/>
+        <filter val="0.37825"/>
+        <filter val="0.37925"/>
+        <filter val="0.37975"/>
+        <filter val="0.38"/>
+        <filter val="0.38425"/>
+        <filter val="0.3855"/>
+        <filter val="0.38975"/>
+        <filter val="0.396"/>
+        <filter val="0.39875"/>
+        <filter val="0.41225"/>
+        <filter val="0.4235"/>
+        <filter val="0.4265"/>
+        <filter val="0.42925"/>
+        <filter val="0.43125"/>
+        <filter val="0.4315"/>
+        <filter val="0.434"/>
+        <filter val="0.44375"/>
+        <filter val="0.44675"/>
+        <filter val="0.4585"/>
+        <filter val="0.4605"/>
+        <filter val="0.4795"/>
+        <filter val="0.49925"/>
+        <filter val="0.5025"/>
+        <filter val="0.52275"/>
+        <filter val="0.5265"/>
+        <filter val="0.53175"/>
+        <filter val="0.5465"/>
+        <filter val="0.571"/>
+        <filter val="0.59375"/>
+        <filter val="0.61975"/>
+        <filter val="0.62825"/>
+        <filter val="0.649"/>
+        <filter val="0.6725"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>